--- a/excels/hero.xlsx
+++ b/excels/hero.xlsx
@@ -752,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,16 +769,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1093,134 +1084,134 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="7" customWidth="1"/>
-    <col min="3" max="4" width="19.5" style="7" customWidth="1"/>
-    <col min="5" max="6" width="17.25" style="7" customWidth="1"/>
-    <col min="7" max="8" width="21.625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="27.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:12">
+    <row r="1" s="4" customFormat="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:12">
+    <row r="2" s="4" customFormat="1" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>0</v>
       </c>
     </row>
